--- a/ResultadoEleicoesDistritos/SANTARÉM_VILA NOVA DA BARQUINHA.xlsx
+++ b/ResultadoEleicoesDistritos/SANTARÉM_VILA NOVA DA BARQUINHA.xlsx
@@ -597,64 +597,64 @@
         <v>1923</v>
       </c>
       <c r="H2" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="I2" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="J2" t="n">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="M2" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N2" t="n">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>9</v>
+      </c>
+      <c r="S2" t="n">
+        <v>86</v>
+      </c>
+      <c r="T2" t="n">
+        <v>126</v>
+      </c>
+      <c r="U2" t="n">
+        <v>9</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1190</v>
+      </c>
+      <c r="W2" t="n">
         <v>2</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>88</v>
-      </c>
-      <c r="T2" t="n">
-        <v>123</v>
-      </c>
-      <c r="U2" t="n">
-        <v>12</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1244</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
+        <v>1239</v>
+      </c>
+      <c r="Y2" t="n">
         <v>0</v>
       </c>
-      <c r="X2" t="n">
-        <v>1210</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2</v>
-      </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
